--- a/web/ExampleFormQuetionSet.xlsx
+++ b/web/ExampleFormQuetionSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\NetBeansProjects\QuizzesOnline\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuizzesOnline\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,9 +74,6 @@
     <t>Time (min): 45</t>
   </si>
   <si>
-    <t>Which of the following is an example of qualitative data?</t>
-  </si>
-  <si>
     <t>Customer feedback</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Exam Score</t>
+  </si>
+  <si>
+    <t>Which is an example of qualitative data?</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -568,21 +568,21 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,19 +627,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -647,22 +647,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/web/ExampleFormQuetionSet.xlsx
+++ b/web/ExampleFormQuetionSet.xlsx
@@ -86,9 +86,6 @@
     <t>Gross profit margin</t>
   </si>
   <si>
-    <t>What is the purpose of a SWOT analysis?</t>
-  </si>
-  <si>
     <t>Identifying strengths, weaknesses, opportunities, and threats</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Which is an example of qualitative data?</t>
+  </si>
+  <si>
+    <t>Which of the following is the right sequence when developing software using the XP practice of Test First Programming?</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -568,21 +568,21 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -647,22 +647,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
